--- a/xlsx_files/parameters.xlsx
+++ b/xlsx_files/parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Savvas\Documents\Projects\UX_survey_tool\FinalVersion\run1\xlsx_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B342CB54-AA39-448A-8B3D-2DBB8F5E5551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C9EA0F-5924-460C-8609-F0DE2BF25F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -375,7 +375,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -460,7 +460,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
